--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leiferr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D7370F-BEFB-EC4C-A240-5AAC57F6D8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9BD0B0-94CF-714A-9186-1281C7B9A3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EB11DC6-7A9A-0F4A-8DB4-D8F36CF51D28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7191A854-FABD-B54E-B3C8-C371B9B8DF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975AAA4-E0DC-5741-87EE-09BA5AE193BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23C809-9321-044C-A6A4-DD4EBFE943D4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>234</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>45435</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leiferr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9BD0B0-94CF-714A-9186-1281C7B9A3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B527C49-7535-C146-B222-28DB7B35DE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7191A854-FABD-B54E-B3C8-C371B9B8DF5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EB11DC6-7A9A-0F4A-8DB4-D8F36CF51D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,40 +396,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23C809-9321-044C-A6A4-DD4EBFE943D4}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975AAA4-E0DC-5741-87EE-09BA5AE193BF}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4556</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6543</v>
+        <v>45435</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>45435</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leiferr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leiferr/IdeaProjects/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B527C49-7535-C146-B222-28DB7B35DE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4B4BD-FDFF-3942-B023-04D47F7D82C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EB11DC6-7A9A-0F4A-8DB4-D8F36CF51D28}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{8EB11DC6-7A9A-0F4A-8DB4-D8F36CF51D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <f>C3</f>
         <v>45435</v>
       </c>
       <c r="C3">
-        <f>B3</f>
         <v>45435</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leiferr/IdeaProjects/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4B4BD-FDFF-3942-B023-04D47F7D82C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADDAA0-0427-5149-A653-0CC4FF64F3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{8EB11DC6-7A9A-0F4A-8DB4-D8F36CF51D28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Test1</t>
   </si>
@@ -47,11 +47,17 @@
   <si>
     <t>Test4</t>
   </si>
+  <si>
+    <t>ß</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CZK&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -81,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,13 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975AAA4-E0DC-5741-87EE-09BA5AE193BF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -429,7 +439,7 @@
         <f>C3</f>
         <v>45435</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>45435</v>
       </c>
     </row>
@@ -439,6 +449,11 @@
       </c>
       <c r="B4">
         <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leiferr/IdeaProjects/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADDAA0-0427-5149-A653-0CC4FF64F3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E97A0EA-2E72-1744-B26E-83C86F34222F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{8EB11DC6-7A9A-0F4A-8DB4-D8F36CF51D28}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +430,9 @@
       <c r="B2">
         <v>34</v>
       </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
